--- a/final_match_output.xlsx
+++ b/final_match_output.xlsx
@@ -160,196 +160,196 @@
     <t>Uhurug.kamau@gmail.com</t>
   </si>
   <si>
+    <t>Feiyue Yang</t>
+  </si>
+  <si>
+    <t>Zhaoyue Li</t>
+  </si>
+  <si>
+    <t>Yiping Li</t>
+  </si>
+  <si>
+    <t>Jiaxi Geng</t>
+  </si>
+  <si>
+    <t>Akhil Bandreddi</t>
+  </si>
+  <si>
+    <t>Yifan Zhao</t>
+  </si>
+  <si>
+    <t>Lia Rotti</t>
+  </si>
+  <si>
+    <t>Xinning Shan</t>
+  </si>
+  <si>
+    <t>Wendy Su</t>
+  </si>
+  <si>
+    <t>Deyi Li</t>
+  </si>
+  <si>
+    <t>Ben Bruncati (legal Kate)</t>
+  </si>
+  <si>
+    <t>Zhuoping Zhou</t>
+  </si>
+  <si>
+    <t>Hongxiang Fu</t>
+  </si>
+  <si>
+    <t>Ruiming(Ray) Wu</t>
+  </si>
+  <si>
+    <t>Yiting Wang</t>
+  </si>
+  <si>
+    <t>Aurod Ounsinegad</t>
+  </si>
+  <si>
+    <t>Savannah Gonzales</t>
+  </si>
+  <si>
+    <t>Poying Lai</t>
+  </si>
+  <si>
+    <t>Emmanuella Ifeoma Onaku</t>
+  </si>
+  <si>
+    <t>Ruolan Li</t>
+  </si>
+  <si>
+    <t>Naying Zhou</t>
+  </si>
+  <si>
+    <t>Sukriti Ghosh</t>
+  </si>
+  <si>
+    <t>Minghui Zhang</t>
+  </si>
+  <si>
+    <t>Vivek Kanpa</t>
+  </si>
+  <si>
+    <t>Ian Gingerich</t>
+  </si>
+  <si>
+    <t>Zihan (Nancy) Zhang</t>
+  </si>
+  <si>
+    <t>Mengyao (Cleo) Fan</t>
+  </si>
+  <si>
+    <t>Mengyao Fan</t>
+  </si>
+  <si>
+    <t>Ruoxuan Wu</t>
+  </si>
+  <si>
+    <t>Shiqi Huang</t>
+  </si>
+  <si>
+    <t>Sarah Dobbins</t>
+  </si>
+  <si>
+    <t>Monday, January 16</t>
+  </si>
+  <si>
+    <t>Anne Hoen</t>
+  </si>
+  <si>
+    <t>Britt Goods</t>
+  </si>
+  <si>
+    <t>James O'Malley</t>
+  </si>
+  <si>
+    <t>Jiwon Lee</t>
+  </si>
+  <si>
+    <t>Yiyan Zhang</t>
+  </si>
+  <si>
+    <t>Ziming Huang</t>
+  </si>
+  <si>
+    <t>Kevin Jin</t>
+  </si>
+  <si>
+    <t>Yifei Gao</t>
+  </si>
+  <si>
+    <t>Carina Leão de Matos</t>
+  </si>
+  <si>
+    <t>Shiqiao Zhao</t>
+  </si>
+  <si>
+    <t>Tuesday, January 17</t>
+  </si>
+  <si>
+    <t>Caitlin Howe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah Brown </t>
+  </si>
+  <si>
+    <t>Sara Lundgren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Qingru Xu</t>
+  </si>
+  <si>
+    <t>Chunnan Liu</t>
+  </si>
+  <si>
+    <t>Qiaoxue Liu</t>
+  </si>
+  <si>
+    <t>Sam Neff</t>
+  </si>
+  <si>
+    <t>Shaohui (Sherry) Wu</t>
+  </si>
+  <si>
+    <t>Juan Camilo Calderón González</t>
+  </si>
+  <si>
+    <t>Shae Gantt</t>
+  </si>
+  <si>
     <t>Siyu Wang</t>
   </si>
   <si>
-    <t>Juan Camilo Calderón González</t>
-  </si>
-  <si>
-    <t>Mengyao (Cleo) Fan</t>
-  </si>
-  <si>
-    <t>Kevin Jin</t>
-  </si>
-  <si>
-    <t>Lia Rotti</t>
-  </si>
-  <si>
-    <t>Xinning Shan</t>
-  </si>
-  <si>
-    <t>Akhil Bandreddi</t>
-  </si>
-  <si>
-    <t>Yifan Zhao</t>
-  </si>
-  <si>
-    <t>Ben Bruncati (legal Kate)</t>
-  </si>
-  <si>
-    <t>Yiyan Zhang</t>
-  </si>
-  <si>
-    <t>Yiting Wang</t>
-  </si>
-  <si>
-    <t>Ruiming(Ray) Wu</t>
-  </si>
-  <si>
-    <t>Hongxiang Fu</t>
-  </si>
-  <si>
-    <t>Zhuoping Zhou</t>
-  </si>
-  <si>
-    <t>Sukriti Ghosh</t>
-  </si>
-  <si>
-    <t>Savannah Gonzales</t>
-  </si>
-  <si>
-    <t>Zhaoyue Li</t>
-  </si>
-  <si>
-    <t>Aurod Ounsinegad</t>
-  </si>
-  <si>
-    <t>Ruolan Li</t>
-  </si>
-  <si>
-    <t>Emmanuella Ifeoma Onaku</t>
-  </si>
-  <si>
-    <t>Wendy Su</t>
-  </si>
-  <si>
-    <t>Naying Zhou</t>
-  </si>
-  <si>
-    <t>Minghui Zhang</t>
-  </si>
-  <si>
-    <t>Vivek Kanpa</t>
-  </si>
-  <si>
-    <t>Ian Gingerich</t>
-  </si>
-  <si>
-    <t>Zihan (Nancy) Zhang</t>
+    <t>Wednesday, January 18</t>
+  </si>
+  <si>
+    <t>Johnathan Shih</t>
+  </si>
+  <si>
+    <t>Yuqi Li</t>
+  </si>
+  <si>
+    <t>Danting Zeng</t>
   </si>
   <si>
     <t>Yeojin Kim</t>
   </si>
   <si>
-    <t>Mengyao Fan</t>
-  </si>
-  <si>
-    <t>Shiqi Huang</t>
-  </si>
-  <si>
-    <t>Ruoxuan Wu</t>
-  </si>
-  <si>
-    <t>Sarah Dobbins</t>
-  </si>
-  <si>
-    <t>Jiaxi Geng</t>
-  </si>
-  <si>
-    <t>Monday, January 16</t>
-  </si>
-  <si>
-    <t>Anne Hoen</t>
-  </si>
-  <si>
-    <t>Britt Goods</t>
-  </si>
-  <si>
-    <t>James O'Malley</t>
-  </si>
-  <si>
-    <t>Jiwon Lee</t>
-  </si>
-  <si>
-    <t>Ziming Huang</t>
-  </si>
-  <si>
-    <t>Danting Zeng</t>
-  </si>
-  <si>
-    <t>Yifei Gao</t>
-  </si>
-  <si>
-    <t>Deyi Li</t>
-  </si>
-  <si>
-    <t>Carina Leão de Matos</t>
-  </si>
-  <si>
-    <t>Qingru Xu</t>
-  </si>
-  <si>
-    <t>Yuqi Li</t>
-  </si>
-  <si>
-    <t>Tuesday, January 17</t>
-  </si>
-  <si>
-    <t>Caitlin Howe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremiah Brown </t>
-  </si>
-  <si>
-    <t>Sara Lundgren</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Shiqiao Zhao</t>
-  </si>
-  <si>
-    <t>Feiyue Yang</t>
-  </si>
-  <si>
-    <t>Qiaoxue Liu</t>
-  </si>
-  <si>
-    <t>Poying Lai</t>
-  </si>
-  <si>
-    <t>Chunnan Liu</t>
+    <t>Weizhou Qian</t>
+  </si>
+  <si>
+    <t>Thursday, January 19</t>
+  </si>
+  <si>
+    <t>Diane Gilbert-Diamond</t>
   </si>
   <si>
     <t>Xueting (Leona) Wang</t>
-  </si>
-  <si>
-    <t>Shae Gantt</t>
-  </si>
-  <si>
-    <t>Shaohui (Sherry) Wu</t>
-  </si>
-  <si>
-    <t>Yiping Li</t>
-  </si>
-  <si>
-    <t>Wednesday, January 18</t>
-  </si>
-  <si>
-    <t>Johnathan Shih</t>
-  </si>
-  <si>
-    <t>Thursday, January 19</t>
-  </si>
-  <si>
-    <t>Diane Gilbert-Diamond</t>
-  </si>
-  <si>
-    <t>Weizhou Qian</t>
-  </si>
-  <si>
-    <t>Sam Neff</t>
   </si>
   <si>
     <t>Friday, January 20</t>
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -812,25 +812,16 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" t="s">
-        <v>50</v>
+      <c r="J4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
       <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s">
         <v>75</v>
@@ -840,25 +831,25 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>31</v>
       </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
       <c r="M7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
       </c>
       <c r="V7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s">
         <v>76</v>
@@ -868,26 +859,29 @@
       <c r="A8" t="s">
         <v>32</v>
       </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>34</v>
       </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -895,13 +889,10 @@
         <v>36</v>
       </c>
       <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
         <v>53</v>
-      </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-      <c r="S12" t="s">
-        <v>68</v>
       </c>
       <c r="U12" t="s">
         <v>71</v>
@@ -914,33 +905,30 @@
       <c r="A13" t="s">
         <v>37</v>
       </c>
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>39</v>
       </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q15" t="s">
-        <v>67</v>
-      </c>
-      <c r="S15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -950,86 +938,101 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
       <c r="M16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V16" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="O18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="M18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>67</v>
+      </c>
+      <c r="T18" t="s">
+        <v>69</v>
+      </c>
+      <c r="V18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" t="s">
-        <v>60</v>
-      </c>
       <c r="N19" t="s">
-        <v>63</v>
-      </c>
-      <c r="T19" t="s">
-        <v>70</v>
-      </c>
-      <c r="V19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>64</v>
+      </c>
+      <c r="R19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="V20" t="s">
+        <v>69</v>
+      </c>
+      <c r="X20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
       <c r="M21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>62</v>
+      </c>
+      <c r="N21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1037,13 +1040,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>4</v>
@@ -1064,10 +1067,10 @@
         <v>10</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>13</v>
@@ -1103,72 +1106,60 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>62</v>
+      </c>
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="E29" t="s">
-        <v>74</v>
-      </c>
       <c r="L29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="T30" t="s">
-        <v>90</v>
-      </c>
-      <c r="X30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="P31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="J32" t="s">
-        <v>88</v>
-      </c>
-      <c r="R32" t="s">
-        <v>60</v>
+      <c r="H32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -1180,48 +1171,51 @@
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="M34" t="s">
-        <v>53</v>
+      <c r="X34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="M36" t="s">
-        <v>89</v>
-      </c>
-      <c r="P36" t="s">
-        <v>88</v>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="S36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
+      <c r="H38" t="s">
+        <v>87</v>
+      </c>
+      <c r="R38" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
-        <v>87</v>
+      <c r="X39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -1233,12 +1227,6 @@
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="E41" t="s">
-        <v>68</v>
-      </c>
-      <c r="O41" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
@@ -1252,7 +1240,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -1263,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
@@ -1272,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>6</v>
@@ -1287,13 +1275,13 @@
         <v>10</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>12</v>
@@ -1317,7 +1305,7 @@
         <v>22</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>23</v>
@@ -1336,19 +1324,13 @@
       <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="E48" t="s">
-        <v>97</v>
-      </c>
-      <c r="X48" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>29</v>
       </c>
-      <c r="D49" t="s">
-        <v>78</v>
+      <c r="K49" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -1360,6 +1342,9 @@
       <c r="A51" t="s">
         <v>31</v>
       </c>
+      <c r="R51" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
@@ -1371,7 +1356,7 @@
         <v>33</v>
       </c>
       <c r="K53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -1383,11 +1368,8 @@
       <c r="A55" t="s">
         <v>35</v>
       </c>
-      <c r="D55" t="s">
-        <v>47</v>
-      </c>
       <c r="S55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -1399,8 +1381,8 @@
       <c r="A57" t="s">
         <v>37</v>
       </c>
-      <c r="D57" t="s">
-        <v>66</v>
+      <c r="T57" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -1412,9 +1394,6 @@
       <c r="A59" t="s">
         <v>39</v>
       </c>
-      <c r="T59" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
@@ -1425,30 +1404,33 @@
       <c r="A61" t="s">
         <v>41</v>
       </c>
-      <c r="L61" t="s">
-        <v>51</v>
+      <c r="M61" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>42</v>
       </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
       <c r="K62" t="s">
+        <v>65</v>
+      </c>
+      <c r="R62" t="s">
         <v>100</v>
-      </c>
-      <c r="R62" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>43</v>
       </c>
-      <c r="E63" t="s">
-        <v>98</v>
-      </c>
       <c r="L63" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -1456,31 +1438,28 @@
         <v>44</v>
       </c>
       <c r="P64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>98</v>
+      </c>
+      <c r="R64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>45</v>
       </c>
-      <c r="K65" t="s">
-        <v>101</v>
-      </c>
-      <c r="V65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>4</v>
@@ -1506,13 +1485,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>13</v>
@@ -1545,88 +1524,106 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="M70" t="s">
+        <v>105</v>
+      </c>
+      <c r="R70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>29</v>
       </c>
+      <c r="J71" t="s">
+        <v>63</v>
+      </c>
       <c r="N71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>106</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>31</v>
       </c>
-      <c r="C73" t="s">
-        <v>71</v>
-      </c>
-      <c r="M73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="P73" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="T74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="E75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>35</v>
       </c>
-      <c r="G77" t="s">
-        <v>73</v>
-      </c>
-      <c r="U77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="E77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="T78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="G79" t="s">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
         <v>38</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
         <v>39</v>
       </c>
-      <c r="B81" t="s">
-        <v>98</v>
-      </c>
-      <c r="T81" t="s">
-        <v>101</v>
+      <c r="M81" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -1643,16 +1640,19 @@
       <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="Q84" t="s">
-        <v>100</v>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="J84" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
         <v>43</v>
       </c>
-      <c r="N85" t="s">
-        <v>65</v>
+      <c r="Q85" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -1664,12 +1664,6 @@
       <c r="A87" t="s">
         <v>45</v>
       </c>
-      <c r="J87" t="s">
-        <v>91</v>
-      </c>
-      <c r="R87" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
@@ -1684,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -1693,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>8</v>
@@ -1708,10 +1702,10 @@
         <v>11</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>13</v>
@@ -1738,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>23</v>
@@ -1762,16 +1756,16 @@
       <c r="A93" t="s">
         <v>29</v>
       </c>
-      <c r="C93" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
-      <c r="R94" t="s">
-        <v>99</v>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="L94" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -1783,8 +1777,8 @@
       <c r="A96" t="s">
         <v>32</v>
       </c>
-      <c r="E96" t="s">
-        <v>102</v>
+      <c r="V96" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -1792,59 +1786,65 @@
         <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
-      </c>
-      <c r="H97" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" t="s">
         <v>34</v>
       </c>
-      <c r="G98" t="s">
-        <v>107</v>
+      <c r="K98" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" t="s">
         <v>35</v>
       </c>
+      <c r="H99" t="s">
+        <v>102</v>
+      </c>
+      <c r="P99" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" t="s">
         <v>36</v>
       </c>
-      <c r="H100" t="s">
-        <v>110</v>
-      </c>
-      <c r="N100" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>69</v>
+      <c r="V100" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" t="s">
         <v>37</v>
       </c>
-      <c r="F101" t="s">
-        <v>70</v>
+      <c r="Q101" t="s">
+        <v>111</v>
+      </c>
+      <c r="R101" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" t="s">
         <v>38</v>
       </c>
-      <c r="T102" t="s">
-        <v>48</v>
+      <c r="F102" t="s">
+        <v>89</v>
+      </c>
+      <c r="H102" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" t="s">
         <v>39</v>
       </c>
+      <c r="O103" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" t="s">
@@ -1855,48 +1855,48 @@
       <c r="A105" t="s">
         <v>41</v>
       </c>
+      <c r="Q105" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" t="s">
         <v>42</v>
       </c>
+      <c r="O106" t="s">
+        <v>87</v>
+      </c>
+      <c r="S106" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" t="s">
         <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>97</v>
-      </c>
-      <c r="H107" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" t="s">
         <v>44</v>
       </c>
-      <c r="O108" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" t="s">
         <v>45</v>
       </c>
+      <c r="E109" t="s">
+        <v>101</v>
+      </c>
+      <c r="R109" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" t="s">
-        <v>96</v>
-      </c>
-      <c r="L110" t="s">
-        <v>85</v>
-      </c>
-      <c r="N110" t="s">
-        <v>104</v>
-      </c>
-      <c r="V110" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/final_match_output.xlsx
+++ b/final_match_output.xlsx
@@ -160,196 +160,196 @@
     <t>Uhurug.kamau@gmail.com</t>
   </si>
   <si>
+    <t>Mengyao Fan</t>
+  </si>
+  <si>
+    <t>Yuqi Li</t>
+  </si>
+  <si>
+    <t>Shae Gantt</t>
+  </si>
+  <si>
+    <t>Kevin Jin</t>
+  </si>
+  <si>
+    <t>Lia Rotti</t>
+  </si>
+  <si>
+    <t>Akhil Bandreddi</t>
+  </si>
+  <si>
+    <t>Xinning Shan</t>
+  </si>
+  <si>
+    <t>Yifan Zhao</t>
+  </si>
+  <si>
+    <t>Ben Bruncati (legal Kate)</t>
+  </si>
+  <si>
+    <t>Yiyan Zhang</t>
+  </si>
+  <si>
+    <t>Yiting Wang</t>
+  </si>
+  <si>
+    <t>Hongxiang Fu</t>
+  </si>
+  <si>
+    <t>Ruiming(Ray) Wu</t>
+  </si>
+  <si>
+    <t>Zhuoping Zhou</t>
+  </si>
+  <si>
+    <t>Sukriti Ghosh</t>
+  </si>
+  <si>
+    <t>Zhaoyue Li</t>
+  </si>
+  <si>
+    <t>Aurod Ounsinegad</t>
+  </si>
+  <si>
+    <t>Savannah Gonzales</t>
+  </si>
+  <si>
+    <t>Naying Zhou</t>
+  </si>
+  <si>
+    <t>Mengyao (Cleo) Fan</t>
+  </si>
+  <si>
+    <t>Emmanuella Ifeoma Onaku</t>
+  </si>
+  <si>
     <t>Feiyue Yang</t>
   </si>
   <si>
-    <t>Zhaoyue Li</t>
+    <t>Minghui Zhang</t>
+  </si>
+  <si>
+    <t>Deyi Li</t>
+  </si>
+  <si>
+    <t>Vivek Kanpa</t>
   </si>
   <si>
     <t>Yiping Li</t>
   </si>
   <si>
+    <t>Johnathan Shih</t>
+  </si>
+  <si>
+    <t>Sarah Dobbins</t>
+  </si>
+  <si>
+    <t>Shiqi Huang</t>
+  </si>
+  <si>
+    <t>Ruoxuan Wu</t>
+  </si>
+  <si>
+    <t>Ruolan Li</t>
+  </si>
+  <si>
+    <t>Weizhou Qian</t>
+  </si>
+  <si>
+    <t>Monday, January 16</t>
+  </si>
+  <si>
+    <t>Anne Hoen</t>
+  </si>
+  <si>
+    <t>Britt Goods</t>
+  </si>
+  <si>
+    <t>James O'Malley</t>
+  </si>
+  <si>
+    <t>Jiwon Lee</t>
+  </si>
+  <si>
     <t>Jiaxi Geng</t>
   </si>
   <si>
-    <t>Akhil Bandreddi</t>
-  </si>
-  <si>
-    <t>Yifan Zhao</t>
-  </si>
-  <si>
-    <t>Lia Rotti</t>
-  </si>
-  <si>
-    <t>Xinning Shan</t>
+    <t>Qiaoxue Liu</t>
+  </si>
+  <si>
+    <t>Poying Lai</t>
+  </si>
+  <si>
+    <t>Sam Neff</t>
+  </si>
+  <si>
+    <t>Danting Zeng</t>
+  </si>
+  <si>
+    <t>Siyu Wang</t>
+  </si>
+  <si>
+    <t>Qingru Xu</t>
+  </si>
+  <si>
+    <t>Tuesday, January 17</t>
+  </si>
+  <si>
+    <t>Caitlin Howe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah Brown </t>
+  </si>
+  <si>
+    <t>Sara Lundgren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Carina Leão de Matos</t>
+  </si>
+  <si>
+    <t>Chunnan Liu</t>
+  </si>
+  <si>
+    <t>Juan Camilo Calderón González</t>
+  </si>
+  <si>
+    <t>Shiqiao Zhao</t>
+  </si>
+  <si>
+    <t>Ziming Huang</t>
+  </si>
+  <si>
+    <t>Zihan (Nancy) Zhang</t>
+  </si>
+  <si>
+    <t>Wednesday, January 18</t>
+  </si>
+  <si>
+    <t>Yifei Gao</t>
+  </si>
+  <si>
+    <t>Thursday, January 19</t>
+  </si>
+  <si>
+    <t>Diane Gilbert-Diamond</t>
+  </si>
+  <si>
+    <t>Shaohui (Sherry) Wu</t>
+  </si>
+  <si>
+    <t>Ian Gingerich</t>
   </si>
   <si>
     <t>Wendy Su</t>
   </si>
   <si>
-    <t>Deyi Li</t>
-  </si>
-  <si>
-    <t>Ben Bruncati (legal Kate)</t>
-  </si>
-  <si>
-    <t>Zhuoping Zhou</t>
-  </si>
-  <si>
-    <t>Hongxiang Fu</t>
-  </si>
-  <si>
-    <t>Ruiming(Ray) Wu</t>
-  </si>
-  <si>
-    <t>Yiting Wang</t>
-  </si>
-  <si>
-    <t>Aurod Ounsinegad</t>
-  </si>
-  <si>
-    <t>Savannah Gonzales</t>
-  </si>
-  <si>
-    <t>Poying Lai</t>
-  </si>
-  <si>
-    <t>Emmanuella Ifeoma Onaku</t>
-  </si>
-  <si>
-    <t>Ruolan Li</t>
-  </si>
-  <si>
-    <t>Naying Zhou</t>
-  </si>
-  <si>
-    <t>Sukriti Ghosh</t>
-  </si>
-  <si>
-    <t>Minghui Zhang</t>
-  </si>
-  <si>
-    <t>Vivek Kanpa</t>
-  </si>
-  <si>
-    <t>Ian Gingerich</t>
-  </si>
-  <si>
-    <t>Zihan (Nancy) Zhang</t>
-  </si>
-  <si>
-    <t>Mengyao (Cleo) Fan</t>
-  </si>
-  <si>
-    <t>Mengyao Fan</t>
-  </si>
-  <si>
-    <t>Ruoxuan Wu</t>
-  </si>
-  <si>
-    <t>Shiqi Huang</t>
-  </si>
-  <si>
-    <t>Sarah Dobbins</t>
-  </si>
-  <si>
-    <t>Monday, January 16</t>
-  </si>
-  <si>
-    <t>Anne Hoen</t>
-  </si>
-  <si>
-    <t>Britt Goods</t>
-  </si>
-  <si>
-    <t>James O'Malley</t>
-  </si>
-  <si>
-    <t>Jiwon Lee</t>
-  </si>
-  <si>
-    <t>Yiyan Zhang</t>
-  </si>
-  <si>
-    <t>Ziming Huang</t>
-  </si>
-  <si>
-    <t>Kevin Jin</t>
-  </si>
-  <si>
-    <t>Yifei Gao</t>
-  </si>
-  <si>
-    <t>Carina Leão de Matos</t>
-  </si>
-  <si>
-    <t>Shiqiao Zhao</t>
-  </si>
-  <si>
-    <t>Tuesday, January 17</t>
-  </si>
-  <si>
-    <t>Caitlin Howe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremiah Brown </t>
-  </si>
-  <si>
-    <t>Sara Lundgren</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Qingru Xu</t>
-  </si>
-  <si>
-    <t>Chunnan Liu</t>
-  </si>
-  <si>
-    <t>Qiaoxue Liu</t>
-  </si>
-  <si>
-    <t>Sam Neff</t>
-  </si>
-  <si>
-    <t>Shaohui (Sherry) Wu</t>
-  </si>
-  <si>
-    <t>Juan Camilo Calderón González</t>
-  </si>
-  <si>
-    <t>Shae Gantt</t>
-  </si>
-  <si>
-    <t>Siyu Wang</t>
-  </si>
-  <si>
-    <t>Wednesday, January 18</t>
-  </si>
-  <si>
-    <t>Johnathan Shih</t>
-  </si>
-  <si>
-    <t>Yuqi Li</t>
-  </si>
-  <si>
-    <t>Danting Zeng</t>
+    <t>Xueting (Leona) Wang</t>
   </si>
   <si>
     <t>Yeojin Kim</t>
-  </si>
-  <si>
-    <t>Weizhou Qian</t>
-  </si>
-  <si>
-    <t>Thursday, January 19</t>
-  </si>
-  <si>
-    <t>Diane Gilbert-Diamond</t>
-  </si>
-  <si>
-    <t>Xueting (Leona) Wang</t>
   </si>
   <si>
     <t>Friday, January 20</t>
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -812,47 +812,47 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
-        <v>56</v>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
       <c r="M5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>30</v>
       </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
       <c r="M7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -862,6 +862,9 @@
       <c r="I8" t="s">
         <v>52</v>
       </c>
+      <c r="Y8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
@@ -873,62 +876,83 @@
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" t="s">
+        <v>70</v>
+      </c>
+      <c r="U10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" t="s">
         <v>53</v>
       </c>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
       <c r="U12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="N13" t="s">
-        <v>47</v>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>38</v>
       </c>
+      <c r="Q14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -938,26 +962,14 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" t="s">
-        <v>57</v>
-      </c>
       <c r="M16" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="R16" t="s">
+        <v>69</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
-      </c>
-      <c r="W16" t="s">
         <v>61</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -965,71 +977,59 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>67</v>
-      </c>
-      <c r="T18" t="s">
-        <v>69</v>
+      <c r="N18" t="s">
+        <v>65</v>
       </c>
       <c r="V18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="N19" t="s">
-        <v>64</v>
-      </c>
-      <c r="R19" t="s">
-        <v>68</v>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
       <c r="V20" t="s">
-        <v>69</v>
-      </c>
-      <c r="X20" t="s">
         <v>74</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="G21" t="s">
-        <v>51</v>
-      </c>
       <c r="M21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
-      </c>
-      <c r="T21" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -1040,13 +1040,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>4</v>
@@ -1067,10 +1067,10 @@
         <v>10</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>13</v>
@@ -1111,18 +1111,15 @@
         <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U26" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="H27" t="s">
-        <v>86</v>
+      <c r="O27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -1135,7 +1132,7 @@
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -1143,23 +1140,20 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="P31" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="H32" t="s">
-        <v>51</v>
+      <c r="F32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -1171,8 +1165,11 @@
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="X34" t="s">
-        <v>88</v>
+      <c r="O34" t="s">
+        <v>89</v>
+      </c>
+      <c r="S34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -1184,38 +1181,32 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="S36" t="s">
-        <v>48</v>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="F37" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="H38" t="s">
-        <v>87</v>
-      </c>
-      <c r="R38" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
+      <c r="M39" t="s">
+        <v>87</v>
+      </c>
       <c r="X39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -1227,11 +1218,17 @@
       <c r="A41" t="s">
         <v>43</v>
       </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
+      <c r="L42" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
@@ -1251,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
@@ -1260,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>6</v>
@@ -1275,13 +1272,13 @@
         <v>10</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>12</v>
@@ -1305,7 +1302,7 @@
         <v>22</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>23</v>
@@ -1324,139 +1321,145 @@
       <c r="A48" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="I48" t="s">
+        <v>89</v>
+      </c>
+      <c r="T48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
         <v>29</v>
       </c>
       <c r="K49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>98</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
         <v>31</v>
       </c>
-      <c r="R51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="K51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="R52" t="s">
+        <v>73</v>
+      </c>
+      <c r="X52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="K53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="S54" t="s">
+        <v>50</v>
+      </c>
+      <c r="V54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
         <v>35</v>
       </c>
-      <c r="S55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
         <v>37</v>
       </c>
-      <c r="T57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="M60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
         <v>41</v>
       </c>
-      <c r="M61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
         <v>42</v>
       </c>
-      <c r="B62" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" t="s">
-        <v>95</v>
-      </c>
-      <c r="K62" t="s">
-        <v>65</v>
-      </c>
-      <c r="R62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="T62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
         <v>43</v>
       </c>
-      <c r="L63" t="s">
+      <c r="F63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>44</v>
-      </c>
-      <c r="P64" t="s">
-        <v>98</v>
-      </c>
-      <c r="R64" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>45</v>
       </c>
+      <c r="R65" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -1470,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>4</v>
@@ -1485,13 +1488,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>13</v>
@@ -1528,26 +1531,11 @@
       <c r="A70" t="s">
         <v>28</v>
       </c>
-      <c r="M70" t="s">
-        <v>105</v>
-      </c>
-      <c r="R70" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>29</v>
       </c>
-      <c r="J71" t="s">
-        <v>63</v>
-      </c>
-      <c r="N71" t="s">
-        <v>106</v>
-      </c>
-      <c r="O71" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
@@ -1558,27 +1546,24 @@
       <c r="A73" t="s">
         <v>31</v>
       </c>
+      <c r="J73" t="s">
+        <v>90</v>
+      </c>
       <c r="P73" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>32</v>
       </c>
-      <c r="T74" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>33</v>
       </c>
-      <c r="E75" t="s">
-        <v>72</v>
+      <c r="K75" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -1590,16 +1575,16 @@
       <c r="A77" t="s">
         <v>35</v>
       </c>
-      <c r="E77" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>36</v>
       </c>
+      <c r="Q78" t="s">
+        <v>98</v>
+      </c>
       <c r="T78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -1607,10 +1592,7 @@
         <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>73</v>
-      </c>
-      <c r="U79" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -1622,9 +1604,6 @@
       <c r="A81" t="s">
         <v>39</v>
       </c>
-      <c r="M81" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
@@ -1635,35 +1614,41 @@
       <c r="A83" t="s">
         <v>41</v>
       </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="C84" t="s">
-        <v>104</v>
-      </c>
-      <c r="J84" t="s">
-        <v>98</v>
+      <c r="M84" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
         <v>43</v>
       </c>
-      <c r="Q85" t="s">
-        <v>100</v>
+      <c r="P85" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
+      <c r="R86" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
+      <c r="P87" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
@@ -1678,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -1687,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>8</v>
@@ -1702,10 +1687,10 @@
         <v>11</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>13</v>
@@ -1732,7 +1717,7 @@
         <v>22</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>23</v>
@@ -1761,40 +1746,55 @@
       <c r="A94" t="s">
         <v>30</v>
       </c>
-      <c r="B94" t="s">
-        <v>95</v>
-      </c>
-      <c r="L94" t="s">
-        <v>54</v>
+      <c r="D94" t="s">
+        <v>108</v>
+      </c>
+      <c r="K94" t="s">
+        <v>78</v>
+      </c>
+      <c r="N94" t="s">
+        <v>107</v>
+      </c>
+      <c r="O94" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
         <v>31</v>
       </c>
+      <c r="C95" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
         <v>32</v>
       </c>
-      <c r="V96" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" t="s">
         <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="O97" t="s">
+        <v>51</v>
+      </c>
+      <c r="T97" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" t="s">
         <v>34</v>
       </c>
-      <c r="K98" t="s">
-        <v>88</v>
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -1802,18 +1802,18 @@
         <v>35</v>
       </c>
       <c r="H99" t="s">
-        <v>102</v>
-      </c>
-      <c r="P99" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" t="s">
         <v>36</v>
       </c>
-      <c r="V100" t="s">
-        <v>106</v>
+      <c r="F100" t="s">
+        <v>70</v>
+      </c>
+      <c r="O100" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -1821,82 +1821,82 @@
         <v>37</v>
       </c>
       <c r="Q101" t="s">
-        <v>111</v>
-      </c>
-      <c r="R101" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" t="s">
-        <v>89</v>
-      </c>
-      <c r="H102" t="s">
-        <v>74</v>
+      <c r="O102" t="s">
+        <v>110</v>
+      </c>
+      <c r="V102" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" t="s">
         <v>39</v>
       </c>
-      <c r="O103" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" t="s">
         <v>40</v>
       </c>
+      <c r="F104" t="s">
+        <v>100</v>
+      </c>
+      <c r="S104" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" t="s">
         <v>41</v>
       </c>
-      <c r="Q105" t="s">
-        <v>108</v>
+      <c r="V105" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" t="s">
         <v>42</v>
       </c>
-      <c r="O106" t="s">
-        <v>87</v>
-      </c>
-      <c r="S106" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" t="s">
         <v>43</v>
       </c>
-      <c r="F107" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" t="s">
         <v>44</v>
       </c>
+      <c r="C108" t="s">
+        <v>54</v>
+      </c>
+      <c r="K108" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" t="s">
         <v>45</v>
       </c>
-      <c r="E109" t="s">
-        <v>101</v>
-      </c>
-      <c r="R109" t="s">
-        <v>107</v>
+      <c r="J109" t="s">
+        <v>97</v>
+      </c>
+      <c r="O109" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C110" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/final_match_output.xlsx
+++ b/final_match_output.xlsx
@@ -154,202 +154,202 @@
     <t>4:30-5:00</t>
   </si>
   <si>
+    <t>Uhurug.kamau@gmail.com</t>
+  </si>
+  <si>
     <t>Shaoming Xiao</t>
   </si>
   <si>
-    <t>Uhurug.kamau@gmail.com</t>
+    <t>Wendy Su</t>
+  </si>
+  <si>
+    <t>Zhuoping Zhou</t>
+  </si>
+  <si>
+    <t>Deyi Li</t>
+  </si>
+  <si>
+    <t>Xueting (Leona) Wang</t>
+  </si>
+  <si>
+    <t>Akhil Bandreddi</t>
+  </si>
+  <si>
+    <t>Lia Rotti</t>
+  </si>
+  <si>
+    <t>Xinning Shan</t>
+  </si>
+  <si>
+    <t>Yifan Zhao</t>
+  </si>
+  <si>
+    <t>Ben Bruncati (legal Kate)</t>
+  </si>
+  <si>
+    <t>Ruiming(Ray) Wu</t>
+  </si>
+  <si>
+    <t>Hongxiang Fu</t>
+  </si>
+  <si>
+    <t>Yiting Wang</t>
+  </si>
+  <si>
+    <t>Sukriti Ghosh</t>
+  </si>
+  <si>
+    <t>Zhaoyue Li</t>
+  </si>
+  <si>
+    <t>Aurod Ounsinegad</t>
+  </si>
+  <si>
+    <t>Savannah Gonzales</t>
+  </si>
+  <si>
+    <t>Feiyue Yang</t>
+  </si>
+  <si>
+    <t>Emmanuella Ifeoma Onaku</t>
+  </si>
+  <si>
+    <t>Qingru Xu</t>
+  </si>
+  <si>
+    <t>Minghui Zhang</t>
+  </si>
+  <si>
+    <t>Vivek Kanpa</t>
+  </si>
+  <si>
+    <t>Sam Neff</t>
+  </si>
+  <si>
+    <t>Ian Gingerich</t>
+  </si>
+  <si>
+    <t>Zihan (Nancy) Zhang</t>
+  </si>
+  <si>
+    <t>Jiaxi Geng</t>
+  </si>
+  <si>
+    <t>Shiqi Huang</t>
+  </si>
+  <si>
+    <t>Sarah Dobbins</t>
   </si>
   <si>
     <t>Mengyao Fan</t>
   </si>
   <si>
+    <t>Ruoxuan Wu</t>
+  </si>
+  <si>
+    <t>Monday, January 16</t>
+  </si>
+  <si>
+    <t>Anne Hoen</t>
+  </si>
+  <si>
+    <t>Britt Goods</t>
+  </si>
+  <si>
+    <t>James O'Malley</t>
+  </si>
+  <si>
+    <t>Jiwon Lee</t>
+  </si>
+  <si>
+    <t>Kevin Jin</t>
+  </si>
+  <si>
+    <t>Yiyan Zhang</t>
+  </si>
+  <si>
+    <t>Ruolan Li</t>
+  </si>
+  <si>
     <t>Yuqi Li</t>
   </si>
   <si>
+    <t>Siyu Wang</t>
+  </si>
+  <si>
+    <t>Yiping Li</t>
+  </si>
+  <si>
+    <t>Danting Zeng</t>
+  </si>
+  <si>
+    <t>Shiqiao Zhao</t>
+  </si>
+  <si>
+    <t>Yeojin Kim</t>
+  </si>
+  <si>
+    <t>Naying Zhou</t>
+  </si>
+  <si>
+    <t>Juan Camilo Calderón González</t>
+  </si>
+  <si>
+    <t>Tuesday, January 17</t>
+  </si>
+  <si>
+    <t>Caitlin Howe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah Brown </t>
+  </si>
+  <si>
+    <t>Sara Lundgren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Carina Leão de Matos</t>
+  </si>
+  <si>
+    <t>Chunnan Liu</t>
+  </si>
+  <si>
+    <t>Mengyao (Cleo) Fan</t>
+  </si>
+  <si>
+    <t>Qiaoxue Liu</t>
+  </si>
+  <si>
+    <t>Poying Lai</t>
+  </si>
+  <si>
     <t>Shae Gantt</t>
   </si>
   <si>
-    <t>Kevin Jin</t>
-  </si>
-  <si>
-    <t>Lia Rotti</t>
-  </si>
-  <si>
-    <t>Akhil Bandreddi</t>
-  </si>
-  <si>
-    <t>Xinning Shan</t>
-  </si>
-  <si>
-    <t>Yifan Zhao</t>
-  </si>
-  <si>
-    <t>Ben Bruncati (legal Kate)</t>
-  </si>
-  <si>
-    <t>Yiyan Zhang</t>
-  </si>
-  <si>
-    <t>Yiting Wang</t>
-  </si>
-  <si>
-    <t>Hongxiang Fu</t>
-  </si>
-  <si>
-    <t>Ruiming(Ray) Wu</t>
-  </si>
-  <si>
-    <t>Zhuoping Zhou</t>
-  </si>
-  <si>
-    <t>Sukriti Ghosh</t>
-  </si>
-  <si>
-    <t>Zhaoyue Li</t>
-  </si>
-  <si>
-    <t>Aurod Ounsinegad</t>
-  </si>
-  <si>
-    <t>Savannah Gonzales</t>
-  </si>
-  <si>
-    <t>Naying Zhou</t>
-  </si>
-  <si>
-    <t>Mengyao (Cleo) Fan</t>
-  </si>
-  <si>
-    <t>Emmanuella Ifeoma Onaku</t>
-  </si>
-  <si>
-    <t>Feiyue Yang</t>
-  </si>
-  <si>
-    <t>Minghui Zhang</t>
-  </si>
-  <si>
-    <t>Deyi Li</t>
-  </si>
-  <si>
-    <t>Vivek Kanpa</t>
-  </si>
-  <si>
-    <t>Yiping Li</t>
+    <t>Yifei Gao</t>
+  </si>
+  <si>
+    <t>Wednesday, January 18</t>
+  </si>
+  <si>
+    <t>Weizhou Qian</t>
   </si>
   <si>
     <t>Johnathan Shih</t>
   </si>
   <si>
-    <t>Sarah Dobbins</t>
-  </si>
-  <si>
-    <t>Shiqi Huang</t>
-  </si>
-  <si>
-    <t>Ruoxuan Wu</t>
-  </si>
-  <si>
-    <t>Ruolan Li</t>
-  </si>
-  <si>
-    <t>Weizhou Qian</t>
-  </si>
-  <si>
-    <t>Monday, January 16</t>
-  </si>
-  <si>
-    <t>Anne Hoen</t>
-  </si>
-  <si>
-    <t>Britt Goods</t>
-  </si>
-  <si>
-    <t>James O'Malley</t>
-  </si>
-  <si>
-    <t>Jiwon Lee</t>
-  </si>
-  <si>
-    <t>Jiaxi Geng</t>
-  </si>
-  <si>
-    <t>Qiaoxue Liu</t>
-  </si>
-  <si>
-    <t>Poying Lai</t>
-  </si>
-  <si>
-    <t>Sam Neff</t>
-  </si>
-  <si>
-    <t>Danting Zeng</t>
-  </si>
-  <si>
-    <t>Siyu Wang</t>
-  </si>
-  <si>
-    <t>Qingru Xu</t>
-  </si>
-  <si>
-    <t>Tuesday, January 17</t>
-  </si>
-  <si>
-    <t>Caitlin Howe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremiah Brown </t>
-  </si>
-  <si>
-    <t>Sara Lundgren</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Carina Leão de Matos</t>
-  </si>
-  <si>
-    <t>Chunnan Liu</t>
-  </si>
-  <si>
-    <t>Juan Camilo Calderón González</t>
-  </si>
-  <si>
-    <t>Shiqiao Zhao</t>
-  </si>
-  <si>
     <t>Ziming Huang</t>
   </si>
   <si>
-    <t>Zihan (Nancy) Zhang</t>
-  </si>
-  <si>
-    <t>Wednesday, January 18</t>
-  </si>
-  <si>
-    <t>Yifei Gao</t>
+    <t>Shaohui (Sherry) Wu</t>
   </si>
   <si>
     <t>Thursday, January 19</t>
   </si>
   <si>
     <t>Diane Gilbert-Diamond</t>
-  </si>
-  <si>
-    <t>Shaohui (Sherry) Wu</t>
-  </si>
-  <si>
-    <t>Ian Gingerich</t>
-  </si>
-  <si>
-    <t>Wendy Su</t>
-  </si>
-  <si>
-    <t>Xueting (Leona) Wang</t>
-  </si>
-  <si>
-    <t>Yeojin Kim</t>
   </si>
   <si>
     <t>Friday, January 20</t>
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -812,47 +812,59 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
       <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" t="s">
         <v>66</v>
       </c>
       <c r="V4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>49</v>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>79</v>
+      <c r="C7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -863,7 +875,7 @@
         <v>52</v>
       </c>
       <c r="Y8" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -875,54 +887,48 @@
       <c r="A10" t="s">
         <v>34</v>
       </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
       <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-      <c r="T10" t="s">
-        <v>70</v>
-      </c>
-      <c r="U10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>35</v>
       </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>67</v>
-      </c>
-      <c r="U12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="W12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
       <c r="L13" t="s">
         <v>56</v>
       </c>
@@ -931,75 +937,75 @@
       <c r="A14" t="s">
         <v>38</v>
       </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
       <c r="Q14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T14" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="I15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N15" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>77</v>
+      <c r="U15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" t="s">
-        <v>69</v>
-      </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17" t="s">
+        <v>72</v>
+      </c>
+      <c r="X17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="N18" t="s">
-        <v>65</v>
-      </c>
-      <c r="V18" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
-      </c>
-      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" t="s">
         <v>71</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1009,27 +1015,24 @@
       <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="V20" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y21" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -1040,13 +1043,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>4</v>
@@ -1067,10 +1070,10 @@
         <v>10</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>13</v>
@@ -1110,37 +1113,34 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="L26" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="O27" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
+      <c r="L28" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="L29" t="s">
-        <v>77</v>
+      <c r="V29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" t="s">
-        <v>57</v>
+      <c r="X30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -1152,14 +1152,20 @@
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
-        <v>85</v>
+      <c r="R32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="U33" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
@@ -1168,45 +1174,57 @@
       <c r="O34" t="s">
         <v>89</v>
       </c>
-      <c r="S34" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S35" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="F36" t="s">
-        <v>86</v>
+      <c r="C36" t="s">
+        <v>83</v>
       </c>
       <c r="M36" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T37" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="M39" t="s">
-        <v>87</v>
-      </c>
-      <c r="X39" t="s">
-        <v>91</v>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -1218,26 +1236,29 @@
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="D41" t="s">
-        <v>64</v>
+      <c r="O41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="L42" t="s">
-        <v>58</v>
+      <c r="H42" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
+      <c r="L43" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -1248,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
@@ -1257,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>6</v>
@@ -1272,13 +1293,13 @@
         <v>10</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>12</v>
@@ -1302,7 +1323,7 @@
         <v>22</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>23</v>
@@ -1321,145 +1342,157 @@
       <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="I48" t="s">
-        <v>89</v>
-      </c>
-      <c r="T48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>29</v>
       </c>
+      <c r="I49" t="s">
+        <v>101</v>
+      </c>
       <c r="K49" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+        <v>90</v>
+      </c>
+      <c r="T50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>31</v>
       </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
       <c r="K51" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>32</v>
       </c>
       <c r="R52" t="s">
         <v>73</v>
       </c>
-      <c r="X52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="N53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>34</v>
       </c>
       <c r="S54" t="s">
-        <v>50</v>
-      </c>
-      <c r="V54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="K59" t="s">
+        <v>102</v>
+      </c>
+      <c r="T59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>40</v>
       </c>
-      <c r="M60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>42</v>
       </c>
-      <c r="T62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="F62" t="s">
+        <v>99</v>
+      </c>
+      <c r="P62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>43</v>
       </c>
-      <c r="F63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="R63" t="s">
+        <v>92</v>
+      </c>
+      <c r="V63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>45</v>
       </c>
-      <c r="R65" t="s">
-        <v>99</v>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="P65" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -1473,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>4</v>
@@ -1488,13 +1521,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>13</v>
@@ -1531,68 +1564,86 @@
       <c r="A70" t="s">
         <v>28</v>
       </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>29</v>
       </c>
+      <c r="R71" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>30</v>
       </c>
+      <c r="P72" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>31</v>
       </c>
-      <c r="J73" t="s">
-        <v>90</v>
-      </c>
-      <c r="P73" t="s">
-        <v>63</v>
+      <c r="M73" t="s">
+        <v>66</v>
+      </c>
+      <c r="O73" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>32</v>
       </c>
+      <c r="K74" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>33</v>
       </c>
-      <c r="K75" t="s">
-        <v>67</v>
+      <c r="E75" t="s">
+        <v>107</v>
+      </c>
+      <c r="M75" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>34</v>
       </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>35</v>
       </c>
+      <c r="G77" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>36</v>
       </c>
-      <c r="Q78" t="s">
-        <v>98</v>
-      </c>
-      <c r="T78" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>37</v>
       </c>
-      <c r="G79" t="s">
-        <v>102</v>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+      <c r="T79" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -1609,46 +1660,37 @@
       <c r="A82" t="s">
         <v>40</v>
       </c>
+      <c r="K82" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
         <v>41</v>
       </c>
-      <c r="B83" t="s">
-        <v>75</v>
+      <c r="U83" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="M84" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
         <v>43</v>
       </c>
-      <c r="P85" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
-      <c r="R86" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
-      <c r="P87" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
@@ -1663,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -1672,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>8</v>
@@ -1687,10 +1729,10 @@
         <v>11</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>13</v>
@@ -1717,7 +1759,7 @@
         <v>22</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>23</v>
@@ -1746,157 +1788,115 @@
       <c r="A94" t="s">
         <v>30</v>
       </c>
-      <c r="D94" t="s">
-        <v>108</v>
-      </c>
-      <c r="K94" t="s">
-        <v>78</v>
-      </c>
-      <c r="N94" t="s">
-        <v>107</v>
-      </c>
-      <c r="O94" t="s">
-        <v>69</v>
+      <c r="L94" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
         <v>31</v>
       </c>
-      <c r="C95" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:19">
       <c r="A97" t="s">
         <v>33</v>
       </c>
-      <c r="F97" t="s">
-        <v>56</v>
-      </c>
-      <c r="O97" t="s">
-        <v>51</v>
-      </c>
-      <c r="T97" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="H97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" t="s">
         <v>34</v>
       </c>
-      <c r="B98" t="s">
-        <v>46</v>
-      </c>
-      <c r="D98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="J98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" t="s">
         <v>35</v>
       </c>
-      <c r="H99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" t="s">
         <v>36</v>
       </c>
-      <c r="F100" t="s">
-        <v>70</v>
-      </c>
-      <c r="O100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" t="s">
         <v>37</v>
       </c>
-      <c r="Q101" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="F101" t="s">
+        <v>56</v>
+      </c>
+      <c r="R101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" t="s">
         <v>38</v>
       </c>
-      <c r="O102" t="s">
-        <v>110</v>
-      </c>
-      <c r="V102" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22">
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:19">
       <c r="A104" t="s">
         <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>100</v>
-      </c>
-      <c r="S104" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" t="s">
         <v>41</v>
       </c>
-      <c r="V105" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22">
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="F106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:19">
       <c r="A108" t="s">
         <v>44</v>
       </c>
-      <c r="C108" t="s">
-        <v>54</v>
-      </c>
-      <c r="K108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="S108" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" t="s">
         <v>45</v>
       </c>
-      <c r="J109" t="s">
+      <c r="B109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" t="s">
         <v>97</v>
       </c>
-      <c r="O109" t="s">
+      <c r="C110" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22">
-      <c r="A110" t="s">
-        <v>96</v>
-      </c>
-      <c r="C110" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/final_match_output.xlsx
+++ b/final_match_output.xlsx
@@ -160,174 +160,183 @@
     <t>Shaoming Xiao</t>
   </si>
   <si>
+    <t>Naying Zhou</t>
+  </si>
+  <si>
+    <t>Xueting (Leona) Wang</t>
+  </si>
+  <si>
+    <t>Siyu Wang</t>
+  </si>
+  <si>
+    <t>Shiqi Huang</t>
+  </si>
+  <si>
+    <t>Akhil Bandreddi</t>
+  </si>
+  <si>
+    <t>Lia Rotti</t>
+  </si>
+  <si>
+    <t>Xinning Shan</t>
+  </si>
+  <si>
+    <t>Yifan Zhao</t>
+  </si>
+  <si>
+    <t>Ben Bruncati (legal Kate)</t>
+  </si>
+  <si>
+    <t>Yiyan Zhang</t>
+  </si>
+  <si>
+    <t>Ruiming(Ray) Wu</t>
+  </si>
+  <si>
+    <t>Hongxiang Fu</t>
+  </si>
+  <si>
+    <t>Yiting Wang</t>
+  </si>
+  <si>
+    <t>Sukriti Ghosh</t>
+  </si>
+  <si>
+    <t>Zhaoyue Li</t>
+  </si>
+  <si>
+    <t>Aurod Ounsinegad</t>
+  </si>
+  <si>
+    <t>Savannah Gonzales</t>
+  </si>
+  <si>
+    <t>Shiqiao Zhao</t>
+  </si>
+  <si>
+    <t>Johnathan Shih</t>
+  </si>
+  <si>
+    <t>Emmanuella Ifeoma Onaku</t>
+  </si>
+  <si>
+    <t>Chunnan Liu</t>
+  </si>
+  <si>
+    <t>Carina Leão de Matos</t>
+  </si>
+  <si>
+    <t>Zhuoping Zhou</t>
+  </si>
+  <si>
+    <t>Juan Camilo Calderón González</t>
+  </si>
+  <si>
+    <t>Yuqi Li</t>
+  </si>
+  <si>
+    <t>Feiyue Yang</t>
+  </si>
+  <si>
+    <t>Minghui Zhang</t>
+  </si>
+  <si>
+    <t>Ruolan Li</t>
+  </si>
+  <si>
+    <t>Vivek Kanpa</t>
+  </si>
+  <si>
+    <t>Ian Gingerich</t>
+  </si>
+  <si>
+    <t>Deyi Li</t>
+  </si>
+  <si>
+    <t>Kevin Jin</t>
+  </si>
+  <si>
+    <t>Mengyao (Cleo) Fan</t>
+  </si>
+  <si>
+    <t>Ruoxuan Wu</t>
+  </si>
+  <si>
+    <t>Sarah Dobbins</t>
+  </si>
+  <si>
+    <t>Mengyao Fan</t>
+  </si>
+  <si>
+    <t>Yeojin Kim</t>
+  </si>
+  <si>
+    <t>Jiaxi Geng</t>
+  </si>
+  <si>
+    <t>Monday, January 16</t>
+  </si>
+  <si>
+    <t>Anne Hoen</t>
+  </si>
+  <si>
+    <t>Britt Goods</t>
+  </si>
+  <si>
+    <t>James O'Malley</t>
+  </si>
+  <si>
+    <t>Jiwon Lee</t>
+  </si>
+  <si>
+    <t>Ziming Huang</t>
+  </si>
+  <si>
+    <t>Shae Gantt</t>
+  </si>
+  <si>
+    <t>Sam Neff</t>
+  </si>
+  <si>
+    <t>Qingru Xu</t>
+  </si>
+  <si>
     <t>Wendy Su</t>
   </si>
   <si>
-    <t>Zhuoping Zhou</t>
-  </si>
-  <si>
-    <t>Deyi Li</t>
-  </si>
-  <si>
-    <t>Xueting (Leona) Wang</t>
-  </si>
-  <si>
-    <t>Akhil Bandreddi</t>
-  </si>
-  <si>
-    <t>Lia Rotti</t>
-  </si>
-  <si>
-    <t>Xinning Shan</t>
-  </si>
-  <si>
-    <t>Yifan Zhao</t>
-  </si>
-  <si>
-    <t>Ben Bruncati (legal Kate)</t>
-  </si>
-  <si>
-    <t>Ruiming(Ray) Wu</t>
-  </si>
-  <si>
-    <t>Hongxiang Fu</t>
-  </si>
-  <si>
-    <t>Yiting Wang</t>
-  </si>
-  <si>
-    <t>Sukriti Ghosh</t>
-  </si>
-  <si>
-    <t>Zhaoyue Li</t>
-  </si>
-  <si>
-    <t>Aurod Ounsinegad</t>
-  </si>
-  <si>
-    <t>Savannah Gonzales</t>
-  </si>
-  <si>
-    <t>Feiyue Yang</t>
-  </si>
-  <si>
-    <t>Emmanuella Ifeoma Onaku</t>
-  </si>
-  <si>
-    <t>Qingru Xu</t>
-  </si>
-  <si>
-    <t>Minghui Zhang</t>
-  </si>
-  <si>
-    <t>Vivek Kanpa</t>
-  </si>
-  <si>
-    <t>Sam Neff</t>
-  </si>
-  <si>
-    <t>Ian Gingerich</t>
+    <t>Shaohui (Sherry) Wu</t>
+  </si>
+  <si>
+    <t>Danting Zeng</t>
+  </si>
+  <si>
+    <t>Tuesday, January 17</t>
+  </si>
+  <si>
+    <t>Caitlin Howe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah Brown </t>
+  </si>
+  <si>
+    <t>Sara Lundgren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Yiping Li</t>
+  </si>
+  <si>
+    <t>Poying Lai</t>
   </si>
   <si>
     <t>Zihan (Nancy) Zhang</t>
   </si>
   <si>
-    <t>Jiaxi Geng</t>
-  </si>
-  <si>
-    <t>Shiqi Huang</t>
-  </si>
-  <si>
-    <t>Sarah Dobbins</t>
-  </si>
-  <si>
-    <t>Mengyao Fan</t>
-  </si>
-  <si>
-    <t>Ruoxuan Wu</t>
-  </si>
-  <si>
-    <t>Monday, January 16</t>
-  </si>
-  <si>
-    <t>Anne Hoen</t>
-  </si>
-  <si>
-    <t>Britt Goods</t>
-  </si>
-  <si>
-    <t>James O'Malley</t>
-  </si>
-  <si>
-    <t>Jiwon Lee</t>
-  </si>
-  <si>
-    <t>Kevin Jin</t>
-  </si>
-  <si>
-    <t>Yiyan Zhang</t>
-  </si>
-  <si>
-    <t>Ruolan Li</t>
-  </si>
-  <si>
-    <t>Yuqi Li</t>
-  </si>
-  <si>
-    <t>Siyu Wang</t>
-  </si>
-  <si>
-    <t>Yiping Li</t>
-  </si>
-  <si>
-    <t>Danting Zeng</t>
-  </si>
-  <si>
-    <t>Shiqiao Zhao</t>
-  </si>
-  <si>
-    <t>Yeojin Kim</t>
-  </si>
-  <si>
-    <t>Naying Zhou</t>
-  </si>
-  <si>
-    <t>Juan Camilo Calderón González</t>
-  </si>
-  <si>
-    <t>Tuesday, January 17</t>
-  </si>
-  <si>
-    <t>Caitlin Howe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremiah Brown </t>
-  </si>
-  <si>
-    <t>Sara Lundgren</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Carina Leão de Matos</t>
-  </si>
-  <si>
-    <t>Chunnan Liu</t>
-  </si>
-  <si>
-    <t>Mengyao (Cleo) Fan</t>
-  </si>
-  <si>
     <t>Qiaoxue Liu</t>
   </si>
   <si>
-    <t>Poying Lai</t>
-  </si>
-  <si>
-    <t>Shae Gantt</t>
-  </si>
-  <si>
     <t>Yifei Gao</t>
   </si>
   <si>
@@ -335,15 +344,6 @@
   </si>
   <si>
     <t>Weizhou Qian</t>
-  </si>
-  <si>
-    <t>Johnathan Shih</t>
-  </si>
-  <si>
-    <t>Ziming Huang</t>
-  </si>
-  <si>
-    <t>Shaohui (Sherry) Wu</t>
   </si>
   <si>
     <t>Thursday, January 19</t>
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -815,29 +815,20 @@
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" t="s">
-        <v>66</v>
-      </c>
       <c r="V4" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
@@ -846,25 +837,31 @@
       <c r="B6" t="s">
         <v>47</v>
       </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>50</v>
-      </c>
-      <c r="X6" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
+      <c r="R7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -874,8 +871,11 @@
       <c r="I8" t="s">
         <v>52</v>
       </c>
+      <c r="T8" t="s">
+        <v>73</v>
+      </c>
       <c r="Y8" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -887,11 +887,11 @@
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
       <c r="I10" t="s">
         <v>53</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -902,16 +902,16 @@
         <v>55</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -921,8 +921,14 @@
       <c r="I12" t="s">
         <v>54</v>
       </c>
+      <c r="S12" t="s">
+        <v>71</v>
+      </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -941,24 +947,24 @@
         <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y14" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="U15" t="s">
-        <v>69</v>
+      <c r="S15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -966,76 +972,94 @@
         <v>40</v>
       </c>
       <c r="V16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>66</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="G17" t="s">
-        <v>51</v>
+      <c r="D17" t="s">
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W17" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="P17" t="s">
+        <v>65</v>
       </c>
       <c r="X17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
+      <c r="Q20" t="s">
+        <v>69</v>
+      </c>
+      <c r="W20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>45</v>
       </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1043,13 +1067,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>4</v>
@@ -1070,10 +1094,10 @@
         <v>10</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>13</v>
@@ -1109,156 +1133,150 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="V29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="X30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="R32" t="s">
-        <v>90</v>
+      <c r="F32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="U33" t="s">
-        <v>91</v>
+      <c r="P33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="O34" t="s">
-        <v>89</v>
+      <c r="S34" t="s">
+        <v>96</v>
+      </c>
+      <c r="V34" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="S35" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="M36" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="P36" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="J37" t="s">
-        <v>53</v>
-      </c>
-      <c r="T37" t="s">
-        <v>87</v>
+      <c r="H37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="F38" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="H39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" t="s">
-        <v>88</v>
+      <c r="C39" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="U40" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="O41" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="H42" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
       <c r="L43" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>95</v>
+      </c>
+      <c r="V43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -1269,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
@@ -1278,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>6</v>
@@ -1293,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>12</v>
@@ -1323,7 +1341,7 @@
         <v>22</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>23</v>
@@ -1343,151 +1361,136 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
         <v>29</v>
       </c>
-      <c r="I49" t="s">
-        <v>101</v>
-      </c>
       <c r="K49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="L50" t="s">
-        <v>90</v>
-      </c>
-      <c r="T50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="I50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
         <v>31</v>
       </c>
-      <c r="D51" t="s">
-        <v>98</v>
-      </c>
-      <c r="K51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="L51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>32</v>
       </c>
-      <c r="R52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="N53" t="s">
-        <v>60</v>
-      </c>
-      <c r="P53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>34</v>
       </c>
-      <c r="S54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="G57" t="s">
+        <v>104</v>
+      </c>
+      <c r="S57" t="s">
+        <v>61</v>
+      </c>
+      <c r="T57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>39</v>
       </c>
       <c r="K59" t="s">
-        <v>102</v>
-      </c>
-      <c r="T59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="L60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
         <v>42</v>
       </c>
-      <c r="F62" t="s">
-        <v>99</v>
-      </c>
-      <c r="P62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
         <v>43</v>
       </c>
+      <c r="N63" t="s">
+        <v>92</v>
+      </c>
       <c r="R63" t="s">
-        <v>92</v>
-      </c>
-      <c r="V63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>71</v>
+      </c>
+      <c r="X63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>44</v>
-      </c>
-      <c r="F64" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>45</v>
       </c>
-      <c r="B65" t="s">
-        <v>98</v>
-      </c>
-      <c r="P65" t="s">
-        <v>100</v>
+      <c r="K65" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -1506,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>4</v>
@@ -1521,13 +1524,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>13</v>
@@ -1564,70 +1567,58 @@
       <c r="A70" t="s">
         <v>28</v>
       </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>29</v>
       </c>
-      <c r="R71" t="s">
-        <v>91</v>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="N71" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>30</v>
       </c>
-      <c r="P72" t="s">
-        <v>102</v>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" t="s">
+        <v>109</v>
+      </c>
+      <c r="R72" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>31</v>
       </c>
-      <c r="M73" t="s">
-        <v>66</v>
-      </c>
-      <c r="O73" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>32</v>
       </c>
-      <c r="K74" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>33</v>
       </c>
-      <c r="E75" t="s">
-        <v>107</v>
-      </c>
-      <c r="M75" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>34</v>
       </c>
-      <c r="B76" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -1639,11 +1630,8 @@
       <c r="A79" t="s">
         <v>37</v>
       </c>
-      <c r="J79" t="s">
-        <v>108</v>
-      </c>
-      <c r="T79" t="s">
-        <v>109</v>
+      <c r="B79" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -1655,27 +1643,30 @@
       <c r="A81" t="s">
         <v>39</v>
       </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
         <v>40</v>
       </c>
-      <c r="K82" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
         <v>41</v>
       </c>
       <c r="U83" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
+      <c r="P84" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
@@ -1705,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -1729,10 +1720,10 @@
         <v>11</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>13</v>
@@ -1759,7 +1750,7 @@
         <v>22</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>23</v>
@@ -1788,8 +1779,8 @@
       <c r="A94" t="s">
         <v>30</v>
       </c>
-      <c r="L94" t="s">
-        <v>86</v>
+      <c r="K94" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -1801,102 +1792,111 @@
       <c r="A96" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="S96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" t="s">
         <v>33</v>
       </c>
-      <c r="H97" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" t="s">
         <v>34</v>
       </c>
-      <c r="J98" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:22">
       <c r="A100" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="F100" t="s">
+        <v>74</v>
+      </c>
+      <c r="V100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" t="s">
         <v>37</v>
       </c>
-      <c r="F101" t="s">
-        <v>56</v>
-      </c>
-      <c r="R101" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="F102" t="s">
+        <v>65</v>
+      </c>
+      <c r="S102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:22">
       <c r="A104" t="s">
         <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="H105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" t="s">
         <v>42</v>
       </c>
-      <c r="F106" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19">
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:22">
       <c r="A108" t="s">
         <v>44</v>
       </c>
-      <c r="S108" t="s">
+      <c r="E108" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:22">
       <c r="A109" t="s">
         <v>45</v>
       </c>
-      <c r="B109" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="C109" t="s">
+        <v>97</v>
+      </c>
+      <c r="R109" t="s">
+        <v>106</v>
+      </c>
+      <c r="S109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" t="s">
-        <v>97</v>
-      </c>
-      <c r="C110" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D110" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/final_match_output.xlsx
+++ b/final_match_output.xlsx
@@ -154,202 +154,202 @@
     <t>4:30-5:00</t>
   </si>
   <si>
+    <t>Shaoming Xiao</t>
+  </si>
+  <si>
     <t>Uhurug.kamau@gmail.com</t>
   </si>
   <si>
-    <t>Shaoming Xiao</t>
+    <t>Weizhou Qian</t>
+  </si>
+  <si>
+    <t>Aurod Ounsinegad</t>
+  </si>
+  <si>
+    <t>Akhil Bandreddi</t>
+  </si>
+  <si>
+    <t>Yifan Zhao</t>
+  </si>
+  <si>
+    <t>Xinning Shan</t>
+  </si>
+  <si>
+    <t>Lia Rotti</t>
+  </si>
+  <si>
+    <t>Ben Bruncati (legal Kate)</t>
+  </si>
+  <si>
+    <t>Yiting Wang</t>
+  </si>
+  <si>
+    <t>Yiyan Zhang</t>
+  </si>
+  <si>
+    <t>Hongxiang Fu</t>
+  </si>
+  <si>
+    <t>Ruiming(Ray) Wu</t>
+  </si>
+  <si>
+    <t>Zhuoping Zhou</t>
+  </si>
+  <si>
+    <t>Savannah Gonzales</t>
+  </si>
+  <si>
+    <t>Sukriti Ghosh</t>
+  </si>
+  <si>
+    <t>Zhaoyue Li</t>
+  </si>
+  <si>
+    <t>Kevin Jin</t>
+  </si>
+  <si>
+    <t>Xueting (Leona) Wang</t>
+  </si>
+  <si>
+    <t>Juan Camilo Calderón González</t>
+  </si>
+  <si>
+    <t>Sam Neff</t>
+  </si>
+  <si>
+    <t>Emmanuella Ifeoma Onaku</t>
+  </si>
+  <si>
+    <t>Mengyao Fan</t>
+  </si>
+  <si>
+    <t>Ziming Huang</t>
+  </si>
+  <si>
+    <t>Minghui Zhang</t>
+  </si>
+  <si>
+    <t>Poying Lai</t>
+  </si>
+  <si>
+    <t>Vivek Kanpa</t>
+  </si>
+  <si>
+    <t>Deyi Li</t>
+  </si>
+  <si>
+    <t>Ian Gingerich</t>
+  </si>
+  <si>
+    <t>Johnathan Shih</t>
+  </si>
+  <si>
+    <t>Danting Zeng</t>
+  </si>
+  <si>
+    <t>Shiqi Huang</t>
+  </si>
+  <si>
+    <t>Ruoxuan Wu</t>
+  </si>
+  <si>
+    <t>Sarah Dobbins</t>
+  </si>
+  <si>
+    <t>Wendy Su</t>
+  </si>
+  <si>
+    <t>Jiaxi Geng</t>
+  </si>
+  <si>
+    <t>Monday, January 16</t>
+  </si>
+  <si>
+    <t>Anne Hoen</t>
+  </si>
+  <si>
+    <t>Britt Goods</t>
+  </si>
+  <si>
+    <t>James O'Malley</t>
+  </si>
+  <si>
+    <t>Jiwon Lee</t>
+  </si>
+  <si>
+    <t>Carina Leão de Matos</t>
+  </si>
+  <si>
+    <t>Chunnan Liu</t>
+  </si>
+  <si>
+    <t>Siyu Wang</t>
+  </si>
+  <si>
+    <t>Shaohui (Sherry) Wu</t>
   </si>
   <si>
     <t>Naying Zhou</t>
   </si>
   <si>
-    <t>Xueting (Leona) Wang</t>
-  </si>
-  <si>
-    <t>Siyu Wang</t>
-  </si>
-  <si>
-    <t>Shiqi Huang</t>
-  </si>
-  <si>
-    <t>Akhil Bandreddi</t>
-  </si>
-  <si>
-    <t>Lia Rotti</t>
-  </si>
-  <si>
-    <t>Xinning Shan</t>
-  </si>
-  <si>
-    <t>Yifan Zhao</t>
-  </si>
-  <si>
-    <t>Ben Bruncati (legal Kate)</t>
-  </si>
-  <si>
-    <t>Yiyan Zhang</t>
-  </si>
-  <si>
-    <t>Ruiming(Ray) Wu</t>
-  </si>
-  <si>
-    <t>Hongxiang Fu</t>
-  </si>
-  <si>
-    <t>Yiting Wang</t>
-  </si>
-  <si>
-    <t>Sukriti Ghosh</t>
-  </si>
-  <si>
-    <t>Zhaoyue Li</t>
-  </si>
-  <si>
-    <t>Aurod Ounsinegad</t>
-  </si>
-  <si>
-    <t>Savannah Gonzales</t>
+    <t>Qingru Xu</t>
+  </si>
+  <si>
+    <t>Ruolan Li</t>
+  </si>
+  <si>
+    <t>Mengyao (Cleo) Fan</t>
+  </si>
+  <si>
+    <t>Feiyue Yang</t>
+  </si>
+  <si>
+    <t>Tuesday, January 17</t>
+  </si>
+  <si>
+    <t>Caitlin Howe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremiah Brown </t>
+  </si>
+  <si>
+    <t>Sara Lundgren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Yifei Gao</t>
+  </si>
+  <si>
+    <t>Qiaoxue Liu</t>
+  </si>
+  <si>
+    <t>Yuqi Li</t>
+  </si>
+  <si>
+    <t>Wednesday, January 18</t>
+  </si>
+  <si>
+    <t>Shae Gantt</t>
+  </si>
+  <si>
+    <t>Zihan (Nancy) Zhang</t>
+  </si>
+  <si>
+    <t>Yiping Li</t>
   </si>
   <si>
     <t>Shiqiao Zhao</t>
   </si>
   <si>
-    <t>Johnathan Shih</t>
-  </si>
-  <si>
-    <t>Emmanuella Ifeoma Onaku</t>
-  </si>
-  <si>
-    <t>Chunnan Liu</t>
-  </si>
-  <si>
-    <t>Carina Leão de Matos</t>
-  </si>
-  <si>
-    <t>Zhuoping Zhou</t>
-  </si>
-  <si>
-    <t>Juan Camilo Calderón González</t>
-  </si>
-  <si>
-    <t>Yuqi Li</t>
-  </si>
-  <si>
-    <t>Feiyue Yang</t>
-  </si>
-  <si>
-    <t>Minghui Zhang</t>
-  </si>
-  <si>
-    <t>Ruolan Li</t>
-  </si>
-  <si>
-    <t>Vivek Kanpa</t>
-  </si>
-  <si>
-    <t>Ian Gingerich</t>
-  </si>
-  <si>
-    <t>Deyi Li</t>
-  </si>
-  <si>
-    <t>Kevin Jin</t>
-  </si>
-  <si>
-    <t>Mengyao (Cleo) Fan</t>
-  </si>
-  <si>
-    <t>Ruoxuan Wu</t>
-  </si>
-  <si>
-    <t>Sarah Dobbins</t>
-  </si>
-  <si>
-    <t>Mengyao Fan</t>
+    <t>Thursday, January 19</t>
+  </si>
+  <si>
+    <t>Diane Gilbert-Diamond</t>
   </si>
   <si>
     <t>Yeojin Kim</t>
-  </si>
-  <si>
-    <t>Jiaxi Geng</t>
-  </si>
-  <si>
-    <t>Monday, January 16</t>
-  </si>
-  <si>
-    <t>Anne Hoen</t>
-  </si>
-  <si>
-    <t>Britt Goods</t>
-  </si>
-  <si>
-    <t>James O'Malley</t>
-  </si>
-  <si>
-    <t>Jiwon Lee</t>
-  </si>
-  <si>
-    <t>Ziming Huang</t>
-  </si>
-  <si>
-    <t>Shae Gantt</t>
-  </si>
-  <si>
-    <t>Sam Neff</t>
-  </si>
-  <si>
-    <t>Qingru Xu</t>
-  </si>
-  <si>
-    <t>Wendy Su</t>
-  </si>
-  <si>
-    <t>Shaohui (Sherry) Wu</t>
-  </si>
-  <si>
-    <t>Danting Zeng</t>
-  </si>
-  <si>
-    <t>Tuesday, January 17</t>
-  </si>
-  <si>
-    <t>Caitlin Howe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremiah Brown </t>
-  </si>
-  <si>
-    <t>Sara Lundgren</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Yiping Li</t>
-  </si>
-  <si>
-    <t>Poying Lai</t>
-  </si>
-  <si>
-    <t>Zihan (Nancy) Zhang</t>
-  </si>
-  <si>
-    <t>Qiaoxue Liu</t>
-  </si>
-  <si>
-    <t>Yifei Gao</t>
-  </si>
-  <si>
-    <t>Wednesday, January 18</t>
-  </si>
-  <si>
-    <t>Weizhou Qian</t>
-  </si>
-  <si>
-    <t>Thursday, January 19</t>
-  </si>
-  <si>
-    <t>Diane Gilbert-Diamond</t>
   </si>
   <si>
     <t>Friday, January 20</t>
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -812,22 +812,31 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="W5" t="s">
-        <v>79</v>
+      <c r="Q5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -835,33 +844,27 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="M6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>73</v>
+      <c r="Z6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="R7" t="s">
-        <v>70</v>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -869,49 +872,46 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="P8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>33</v>
       </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="X10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" t="s">
-        <v>74</v>
-      </c>
-      <c r="U11" t="s">
-        <v>76</v>
+      <c r="D11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -919,144 +919,129 @@
         <v>36</v>
       </c>
       <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
         <v>54</v>
-      </c>
-      <c r="S12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="L13" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="Q14" t="s">
         <v>67</v>
       </c>
+      <c r="S14" t="s">
+        <v>69</v>
+      </c>
       <c r="T14" t="s">
         <v>67</v>
       </c>
+      <c r="U14" t="s">
+        <v>72</v>
+      </c>
       <c r="Y14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="S15" t="s">
-        <v>72</v>
+      <c r="W15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>40</v>
       </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
       <c r="V16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" t="s">
-        <v>65</v>
-      </c>
-      <c r="X17" t="s">
-        <v>80</v>
+      <c r="Y17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>68</v>
-      </c>
-      <c r="T18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>72</v>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="M19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" t="s">
-        <v>64</v>
-      </c>
-      <c r="V19" t="s">
-        <v>78</v>
+      <c r="Y19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" t="s">
-        <v>69</v>
-      </c>
-      <c r="W20" t="s">
-        <v>48</v>
+      <c r="M20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="G21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -1067,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>4</v>
@@ -1094,10 +1079,10 @@
         <v>10</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>13</v>
@@ -1137,18 +1122,24 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
+      <c r="L26" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>29</v>
       </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -1160,11 +1151,11 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="R30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -1176,27 +1167,30 @@
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
-        <v>93</v>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>95</v>
+      </c>
+      <c r="T32" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="P33" t="s">
-        <v>94</v>
+      <c r="M33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="S34" t="s">
-        <v>96</v>
-      </c>
-      <c r="V34" t="s">
-        <v>97</v>
+      <c r="T34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -1208,19 +1202,22 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="P36" t="s">
-        <v>85</v>
+      <c r="H36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="H37" t="s">
-        <v>91</v>
+      <c r="M37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P37" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -1232,19 +1229,16 @@
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
-        <v>91</v>
+      <c r="D39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="E40" t="s">
-        <v>92</v>
-      </c>
-      <c r="U40" t="s">
-        <v>94</v>
+      <c r="D40" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -1261,22 +1255,13 @@
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L43" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>95</v>
-      </c>
-      <c r="V43" t="s">
-        <v>78</v>
+      <c r="H43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -1287,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
@@ -1296,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>6</v>
@@ -1311,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>12</v>
@@ -1341,7 +1326,7 @@
         <v>22</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>23</v>
@@ -1360,124 +1345,121 @@
       <c r="A48" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="P48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>29</v>
       </c>
-      <c r="K49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="R49" t="s">
+        <v>101</v>
+      </c>
+      <c r="V49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="I50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="K50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>31</v>
       </c>
-      <c r="L51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="F51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="D53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>37</v>
       </c>
-      <c r="G57" t="s">
-        <v>104</v>
-      </c>
-      <c r="S57" t="s">
-        <v>61</v>
-      </c>
-      <c r="T57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>39</v>
       </c>
       <c r="K59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>40</v>
       </c>
-      <c r="L60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="L62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>43</v>
       </c>
-      <c r="N63" t="s">
-        <v>92</v>
-      </c>
-      <c r="R63" t="s">
-        <v>71</v>
-      </c>
-      <c r="X63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="G63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>44</v>
+      </c>
+      <c r="R64" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -1485,17 +1467,17 @@
         <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -1509,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>4</v>
@@ -1524,13 +1506,13 @@
         <v>10</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>13</v>
@@ -1567,30 +1549,21 @@
       <c r="A70" t="s">
         <v>28</v>
       </c>
+      <c r="M70" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>29</v>
       </c>
-      <c r="C71" t="s">
-        <v>46</v>
-      </c>
-      <c r="N71" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>30</v>
       </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="F72" t="s">
-        <v>109</v>
-      </c>
       <c r="R72" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -1602,36 +1575,54 @@
       <c r="A74" t="s">
         <v>32</v>
       </c>
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>33</v>
       </c>
+      <c r="K75" t="s">
+        <v>69</v>
+      </c>
+      <c r="R75" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>34</v>
       </c>
+      <c r="E76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>35</v>
       </c>
-      <c r="G77" t="s">
-        <v>105</v>
+      <c r="T77" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>36</v>
       </c>
+      <c r="E78" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>37</v>
       </c>
-      <c r="B79" t="s">
-        <v>62</v>
+      <c r="T79" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -1643,8 +1634,8 @@
       <c r="A81" t="s">
         <v>39</v>
       </c>
-      <c r="B81" t="s">
-        <v>54</v>
+      <c r="Q81" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -1656,16 +1647,19 @@
       <c r="A83" t="s">
         <v>41</v>
       </c>
-      <c r="U83" t="s">
-        <v>84</v>
+      <c r="M83" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
-      <c r="P84" t="s">
-        <v>96</v>
+      <c r="C84" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -1682,6 +1676,9 @@
       <c r="A87" t="s">
         <v>45</v>
       </c>
+      <c r="P87" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
@@ -1696,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -1705,7 +1702,7 @@
         <v>6</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>8</v>
@@ -1720,10 +1717,10 @@
         <v>11</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>13</v>
@@ -1750,7 +1747,7 @@
         <v>22</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V91" s="2" t="s">
         <v>23</v>
@@ -1779,8 +1776,8 @@
       <c r="A94" t="s">
         <v>30</v>
       </c>
-      <c r="K94" t="s">
-        <v>109</v>
+      <c r="D94" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -1792,8 +1789,8 @@
       <c r="A96" t="s">
         <v>32</v>
       </c>
-      <c r="S96" t="s">
-        <v>59</v>
+      <c r="T96" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -1805,6 +1802,9 @@
       <c r="A98" t="s">
         <v>34</v>
       </c>
+      <c r="C98" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" t="s">
@@ -1816,87 +1816,87 @@
         <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>74</v>
-      </c>
-      <c r="V100" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" t="s">
         <v>37</v>
       </c>
+      <c r="O101" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" t="s">
         <v>38</v>
       </c>
-      <c r="F102" t="s">
-        <v>65</v>
-      </c>
-      <c r="S102" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" t="s">
         <v>39</v>
       </c>
+      <c r="N103" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" t="s">
         <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" t="s">
         <v>41</v>
       </c>
-      <c r="H105" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" t="s">
         <v>42</v>
       </c>
+      <c r="Q106" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" t="s">
         <v>43</v>
       </c>
+      <c r="F107" t="s">
+        <v>70</v>
+      </c>
+      <c r="R107" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" t="s">
         <v>44</v>
       </c>
-      <c r="E108" t="s">
-        <v>103</v>
+      <c r="V108" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" t="s">
         <v>45</v>
       </c>
-      <c r="C109" t="s">
-        <v>97</v>
-      </c>
-      <c r="R109" t="s">
-        <v>106</v>
-      </c>
-      <c r="S109" t="s">
-        <v>95</v>
+      <c r="L109" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" t="s">
-        <v>102</v>
-      </c>
-      <c r="D110" t="s">
-        <v>63</v>
+        <v>100</v>
+      </c>
+      <c r="B110" t="s">
+        <v>89</v>
+      </c>
+      <c r="S110" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
